--- a/backend/static/tpl/perms_tpl.xlsx
+++ b/backend/static/tpl/perms_tpl.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>*名称</t>
   </si>
@@ -65,22 +65,61 @@
     <t>备注</t>
   </si>
   <si>
+    <t>所有账号</t>
+  </si>
+  <si>
+    <t>指定账号</t>
+  </si>
+  <si>
+    <t>手动账号</t>
+  </si>
+  <si>
+    <t>同名账号</t>
+  </si>
+  <si>
+    <t>匿名账号</t>
+  </si>
+  <si>
+    <t>连接</t>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>粘贴</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
     <t>授权规则-enhance</t>
   </si>
   <si>
-    <t>朱佳莉</t>
+    <t>Administrator,测试账号1</t>
+  </si>
+  <si>
+    <t>Test,运维组</t>
   </si>
   <si>
     <t>1号发布机的web资产, 2号发布机的web资产</t>
   </si>
   <si>
-    <t xml:space="preserve"> @USER,手动输入</t>
-  </si>
-  <si>
-    <t>连接, upload, download, copy, paste, delete, share</t>
+    <t>/default/Linux,/default/测试部门</t>
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>2024/01/03 16:49:19 +0800</t>
@@ -108,6 +147,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -259,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +308,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -453,12 +499,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,19 +649,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,7 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,120 +682,135 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1055,91 +1157,199 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="108" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
-    <col min="7" max="7" width="71" customWidth="1"/>
-    <col min="8" max="10" width="30" customWidth="1"/>
+    <col min="1" max="1" width="19.3076923076923" customWidth="1"/>
+    <col min="2" max="3" width="8.15384615384615" customWidth="1"/>
+    <col min="4" max="4" width="45.8461538461538" customWidth="1"/>
+    <col min="5" max="5" width="9.60576923076923" customWidth="1"/>
+    <col min="6" max="10" width="10.3076923076923" customWidth="1"/>
+    <col min="11" max="18" width="6" customWidth="1"/>
+    <col min="19" max="20" width="27.1538461538462" customWidth="1"/>
+    <col min="21" max="22" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:22">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:20">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576 H$1:H$1048576 I$1:I$1048576 J$1:J$1048576 K$1:K$1048576 L$1:L$1048576 M$1:M$1048576 N$1:N$1048576 O$1:O$1048576 P$1:P$1048576 Q$1:Q$1048576 R$1:R$1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
